--- a/Jogos_do_Dia/2023-05-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>5.48</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>1.59</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="N2" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.52</v>
@@ -695,25 +695,25 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>7.19</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
@@ -766,7 +766,7 @@
         <v>2.35</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
         <v>1.55</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.09</v>
@@ -867,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="N4" t="n">
         <v>1.75</v>
@@ -1025,28 +1025,28 @@
         <v>2.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.47</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="N8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
         <v>1.41</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
@@ -1423,10 +1423,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1503,46 +1503,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>1.73</v>
       </c>
       <c r="I10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>3.24</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
         <v>1.91</v>
@@ -1551,52 +1551,52 @@
         <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="U10" t="n">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
         <v>0.5</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.13</v>
+        <v>2.02</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.46</v>
+        <v>2.91</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="11">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shijiazhuang Ever Bright</t>
+          <t>Dalian Yifang</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.07</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.39</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
@@ -1637,76 +1637,76 @@
         <v>6.5</v>
       </c>
       <c r="K11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.45</v>
       </c>
-      <c r="L11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="T11" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="U11" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.79</v>
+        <v>1.38</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.85</v>
+        <v>2.34</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="12">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dalian Yifang</t>
+          <t>Shijiazhuang Ever Bright</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.55</v>
+        <v>3.07</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
+        <v>2.39</v>
       </c>
       <c r="I12" t="n">
         <v>1.1</v>
@@ -1747,76 +1747,76 @@
         <v>6.5</v>
       </c>
       <c r="K12" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="N12" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="O12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1.45</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AE12" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -1833,46 +1833,46 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Hangzhou</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J13" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.7</v>
+        <v>3.24</v>
       </c>
       <c r="Q13" t="n">
         <v>1.91</v>
@@ -1881,52 +1881,52 @@
         <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.12</v>
       </c>
       <c r="T13" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="U13" t="n">
-        <v>1.2</v>
+        <v>2.55</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.02</v>
+        <v>1.13</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.91</v>
+        <v>2.46</v>
       </c>
       <c r="AA13" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="14">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1976,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
@@ -2015,28 +2015,28 @@
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2083,10 +2083,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="O15" t="n">
         <v>1.43</v>
@@ -2159,104 +2159,104 @@
         <v>45051.5</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Mariehamn</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1.95</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2</v>
-      </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -2273,100 +2273,100 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inter Turku</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J17" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="K17" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="L17" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N17" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.73</v>
+        <v>0.85</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AB17" t="n">
         <v>8.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="AD17" t="n">
         <v>1.15</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AG17" t="n">
         <v>2</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="18">
@@ -2383,100 +2383,100 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Honka</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M18" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.8</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.85</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.66</v>
+        <v>3.96</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AG18" t="n">
         <v>2</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="19">
@@ -2493,100 +2493,100 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Honka</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="L19" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="N19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.91</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
         <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>0.99</v>
+        <v>1.11</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.98</v>
+        <v>1.39</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.96</v>
+        <v>2.06</v>
       </c>
       <c r="AD19" t="n">
         <v>1.16</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AG19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="20">
@@ -2599,104 +2599,104 @@
         <v>45051.5</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="K20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="M20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R20" t="n">
         <v>2</v>
       </c>
-      <c r="N20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.05</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U20" t="n">
         <v>1.58</v>
       </c>
       <c r="V20" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>0.92</v>
+        <v>1.57</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>3.2</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="21">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2895,28 +2895,28 @@
         <v>3.13</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="G23" t="n">
         <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2963,10 +2963,10 @@
         <v>3.3</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N23" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3162,37 +3162,37 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M25" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="N25" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="Q25" t="n">
         <v>1.83</v>
@@ -3201,13 +3201,13 @@
         <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V25" t="n">
         <v>1.93</v>
@@ -3225,28 +3225,28 @@
         <v>3.51</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF25" t="n">
         <v>1.95</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="26">
@@ -3263,100 +3263,100 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Greuther Fürth</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J26" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="K26" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>2.18</v>
+        <v>2.74</v>
       </c>
       <c r="S26" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="T26" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="U26" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="V26" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.13</v>
       </c>
-      <c r="W26" t="n">
-        <v>0.6</v>
-      </c>
       <c r="X26" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="Z26" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH26" t="n">
         <v>2.95</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="27">
@@ -3373,100 +3373,100 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Greuther Fürth</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L27" t="n">
         <v>3.5</v>
       </c>
-      <c r="I27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J27" t="n">
-        <v>13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M27" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="N27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG27" t="n">
         <v>2.3</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AH27" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.51</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N28" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3602,37 +3602,37 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="M29" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="N29" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Q29" t="n">
         <v>1.73</v>
@@ -3641,13 +3641,13 @@
         <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V29" t="n">
         <v>0.89</v>
@@ -3665,25 +3665,25 @@
         <v>2.77</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE29" t="n">
         <v>1.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -3712,52 +3712,52 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="M30" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
         <v>1.33</v>
@@ -3775,28 +3775,28 @@
         <v>2.96</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF30" t="n">
         <v>1.75</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="31">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G31" t="n">
         <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
         <v>1.06</v>
@@ -3843,10 +3843,10 @@
         <v>3.3</v>
       </c>
       <c r="M31" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3885,242 +3885,242 @@
         <v>2.85</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG31" t="n">
         <v>1.9</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45051.60416666666</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Chindia Târgovişte</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rheindorf Altach</t>
+          <t>Petrolul 52</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.84</v>
+        <v>2.43</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M32" t="n">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="N32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V32" t="n">
-        <v>0.62</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="X32" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
         <v>45051.60416666666</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chindia Târgovişte</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Petrolul 52</t>
+          <t>Rheindorf Altach</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.69</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="N33" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1.18</v>
+        <v>0.62</v>
       </c>
       <c r="W33" t="n">
-        <v>1.12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X33" t="n">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.86</v>
+        <v>2.12</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4132,197 +4132,197 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>45051.625</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="G34" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.55</v>
+        <v>1.83</v>
       </c>
       <c r="I34" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="J34" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K34" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="L34" t="n">
-        <v>4.87</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="N34" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.25</v>
       </c>
-      <c r="P34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="W34" t="n">
-        <v>0.53</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.57</v>
+        <v>2.69</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.85</v>
+        <v>1.65</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.73</v>
+        <v>2.93</v>
       </c>
       <c r="AH34" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>45051.625</v>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Academia Cantolao</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Deportivo Binacional</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="H35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.25</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J35" t="n">
-        <v>13</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.12</v>
-      </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X35" t="n">
         <v>1.42</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.28</v>
-      </c>
       <c r="Y35" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.8</v>
+        <v>3.03</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4337,16 +4337,16 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="36">
@@ -4363,100 +4363,100 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.57</v>
       </c>
-      <c r="G36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J36" t="n">
-        <v>13</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="V36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AE36" t="n">
         <v>1.5</v>
       </c>
-      <c r="R36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="37">
@@ -4473,100 +4473,100 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.85</v>
+        <v>1.57</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="H37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R37" t="n">
         <v>2.4</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S37" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U37" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="W37" t="n">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA37" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="38">
@@ -4583,263 +4583,263 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="I38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J38" t="n">
+        <v>13</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.01</v>
       </c>
-      <c r="J38" t="n">
-        <v>11</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V38" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>1.18</v>
+        <v>1.82</v>
       </c>
       <c r="X38" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="Z38" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
         <v>45051.625</v>
       </c>
       <c r="C39" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J39" t="n">
+        <v>19</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P39" t="n">
         <v>3.75</v>
       </c>
-      <c r="G39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
       <c r="Q39" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S39" t="n">
-        <v>1.91</v>
+        <v>1.28</v>
       </c>
       <c r="T39" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>0.53</v>
       </c>
       <c r="X39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
         <v>45051.625</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Academia Cantolao</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deportivo Binacional</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="I40" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M40" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O40" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4851,414 +4851,414 @@
         <v>2.15</v>
       </c>
       <c r="S40" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
         <v>1.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6</v>
+        <v>1.41</v>
       </c>
       <c r="W40" t="n">
-        <v>0.33</v>
+        <v>1.82</v>
       </c>
       <c r="X40" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="Z40" t="n">
-        <v>3.03</v>
+        <v>2.87</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG41" t="n">
         <v>2.38</v>
       </c>
-      <c r="I41" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J41" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AH41" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V42" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W42" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="Z42" t="n">
-        <v>2.31</v>
+        <v>3.04</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Unión Santa Fe</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N43" t="n">
         <v>2.1</v>
       </c>
-      <c r="G43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U43" t="n">
         <v>2.3</v>
       </c>
-      <c r="N43" t="n">
+      <c r="V43" t="n">
         <v>1.6</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W43" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="X43" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.47</v>
+        <v>3.01</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="G44" t="n">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="I44" t="n">
         <v>1.08</v>
@@ -5267,281 +5267,281 @@
         <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="L44" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="M44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AA44" t="n">
         <v>2.1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1.59</v>
       </c>
       <c r="AB44" t="n">
         <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C45" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Unión Santa Fe</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J45" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="K45" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="M45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF45" t="n">
         <v>1.82</v>
       </c>
-      <c r="N45" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1.79</v>
-      </c>
       <c r="AG45" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="AH45" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.68</v>
       </c>
-      <c r="G46" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
       <c r="S46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W46" t="n">
         <v>1.17</v>
       </c>
-      <c r="T46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1</v>
-      </c>
       <c r="X46" t="n">
-        <v>1.76</v>
+        <v>0.86</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="Z46" t="n">
-        <v>3.04</v>
+        <v>2.17</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.47</v>
+        <v>2.6</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC46" t="n">
-        <v>3.25</v>
+        <v>1.74</v>
       </c>
       <c r="AD46" t="n">
         <v>1.27</v>
@@ -5550,123 +5550,123 @@
         <v>1.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AH46" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
         <v>45051.64583333334</v>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.7</v>
+        <v>1.78</v>
       </c>
       <c r="G47" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="I47" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="K47" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AG47" t="n">
         <v>2.8</v>
       </c>
-      <c r="M47" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="48">
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>3.6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="N48" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="O48" t="n">
         <v>1.39</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="G49" t="n">
         <v>3.6</v>
       </c>
       <c r="H49" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
@@ -5823,10 +5823,10 @@
         <v>3.1</v>
       </c>
       <c r="M49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O49" t="n">
         <v>1.45</v>
@@ -5912,10 +5912,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="G50" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H50" t="n">
         <v>9</v>
@@ -5933,10 +5933,10 @@
         <v>3.3</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N50" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
@@ -5984,19 +5984,19 @@
         <v>4.66</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="51">
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>4.75</v>
@@ -6043,10 +6043,10 @@
         <v>3.25</v>
       </c>
       <c r="M51" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="O51" t="n">
         <v>1.41</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
         <v>1.09</v>
@@ -6150,13 +6150,13 @@
         <v>1.5</v>
       </c>
       <c r="L52" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M52" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N52" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O52" t="n">
         <v>1.56</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
         <v>1.08</v>
@@ -6263,10 +6263,10 @@
         <v>2.8</v>
       </c>
       <c r="M53" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="N53" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O53" t="n">
         <v>1.48</v>
@@ -6391,13 +6391,13 @@
         <v>1.91</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V54" t="n">
         <v>2.5</v>
@@ -6415,28 +6415,28 @@
         <v>2.69</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="55">
@@ -6462,52 +6462,52 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V55" t="n">
         <v>0.8</v>
@@ -6550,87 +6550,89 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>9288</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B56" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C56" t="n">
+        <v>16</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y56" t="n">
         <v>1</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Juventud</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Potencia</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Z56" t="n">
-        <v>2.91</v>
+        <v>2.63</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -6658,23 +6660,25 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>9288</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B57" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sud América</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bella Vista</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -6726,19 +6730,19 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="X57" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.71</v>
+        <v>2.37</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -6766,23 +6770,25 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>9288</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B58" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Albion</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Patriotas Boyacá</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -6834,19 +6840,19 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W58" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X58" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
@@ -6874,23 +6880,25 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>9288</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B59" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Universitario Popayán</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -6942,19 +6950,19 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="X59" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.97</v>
+        <v>2.47</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
@@ -6982,23 +6990,25 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>9288</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B60" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tacuarembó</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -7050,19 +7060,19 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="W60" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="X60" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.33</v>
+        <v>0.97</v>
       </c>
       <c r="Z60" t="n">
-        <v>3.01</v>
+        <v>2.47</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -7090,23 +7100,25 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>9288</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B61" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Fortaleza CEIF</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -7158,19 +7170,19 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="X61" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
@@ -7200,23 +7212,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hammam-Sousse</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EO Sidi Bouzid</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -7268,19 +7280,19 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>1.1</v>
+        <v>1.71</v>
       </c>
       <c r="W62" t="n">
-        <v>0.7</v>
+        <v>1.29</v>
       </c>
       <c r="X62" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.98</v>
+        <v>3.15</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
@@ -7308,23 +7320,25 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>9288</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B63" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Atenas</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cerrito</t>
+          <t>Valledupar</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -7376,19 +7390,19 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W63" t="n">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="X63" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.99</v>
+        <v>2.97</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
@@ -7418,143 +7432,143 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
         <v>45051.79166666666</v>
       </c>
       <c r="C64" t="n">
+        <v>14</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J64" t="n">
         <v>7</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>AS Slimane</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Métlaoui</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V64" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="W64" t="n">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="X64" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.83333333334</v>
       </c>
       <c r="C65" t="n">
         <v>16</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Nacional Asunción</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Valledupar</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7569,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -7596,19 +7610,19 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="W65" t="n">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="X65" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AA65" t="n">
         <v>0</v>
@@ -7638,197 +7652,197 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.83333333334</v>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Guabirá</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Vaca Díez</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="H66" t="n">
-        <v>2.9</v>
+        <v>3.68</v>
       </c>
       <c r="I66" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N66" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P66" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
         <v>1.8</v>
       </c>
-      <c r="S66" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U66" t="n">
+      <c r="W66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X66" t="n">
         <v>1.57</v>
       </c>
-      <c r="V66" t="n">
-        <v>2</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="Y66" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.91</v>
+        <v>2.87</v>
       </c>
       <c r="AA66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Venezuela Primera División</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.84375</v>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V67" t="n">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="W67" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Z67" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="AA67" t="n">
         <v>0</v>
@@ -7858,108 +7872,108 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.85416666666</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF</t>
+          <t>Rionegro Águilas</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V68" t="n">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="W68" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="X68" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH68" t="n">
         <v>0</v>
@@ -7968,33 +7982,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Canada Canadian Premier League</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.85416666666</v>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>York9 FC</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Forge FC</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -8009,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -8036,19 +8050,19 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="X69" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AA69" t="n">
         <v>0</v>
@@ -8078,87 +8092,87 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>USA USL Championship</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.875</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Universitario Popayán</t>
+          <t>Rio Grande Valley</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>New Mexico United</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V70" t="n">
-        <v>1.29</v>
+        <v>0.75</v>
       </c>
       <c r="W70" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="X70" t="n">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AA70" t="n">
         <v>0</v>
@@ -8188,87 +8202,87 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45051.79166666666</v>
+        <v>45051.875</v>
       </c>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Orense SC</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Patriotas Boyacá</t>
+          <t>Técnico Universitario</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V71" t="n">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="W71" t="n">
-        <v>1.29</v>
+        <v>0.25</v>
       </c>
       <c r="X71" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
@@ -8280,1118 +8294,18 @@
         <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera B</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>45051.79166666666</v>
-      </c>
-      <c r="C72" t="n">
-        <v>16</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera B</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>45051.79166666666</v>
-      </c>
-      <c r="C73" t="n">
-        <v>16</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Cortuluá</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Bogotá</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>2</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X73" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Tunisia Ligue 1</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>45051.79166666666</v>
-      </c>
-      <c r="C74" t="n">
-        <v>7</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>CA Bizertin</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Stade Tunisien</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Paraguay Division Profesional</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>45051.83333333334</v>
-      </c>
-      <c r="C75" t="n">
-        <v>16</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Nacional Asunción</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Bolivia LFPB</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>45051.83333333334</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Guabirá</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Vaca Díez</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X76" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Venezuela Primera División</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>45051.84375</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Portuguesa</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1</v>
-      </c>
-      <c r="X77" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>45051.85416666666</v>
-      </c>
-      <c r="C78" t="n">
-        <v>18</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Rionegro Águilas</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M78" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V78" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="X78" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Canada Canadian Premier League</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45051.85416666666</v>
-      </c>
-      <c r="C79" t="n">
-        <v>4</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>York9 FC</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Forge FC</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>3</v>
-      </c>
-      <c r="X79" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>USA USL Championship</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45051.875</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Rio Grande Valley</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>New Mexico United</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J80" t="n">
-        <v>9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X80" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45051.875</v>
-      </c>
-      <c r="C81" t="n">
-        <v>9</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Orense SC</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Técnico Universitario</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V81" t="n">
-        <v>3</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X81" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AH81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-05-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.48</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.59</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -653,10 +653,10 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="N2" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O2" t="n">
         <v>1.52</v>
@@ -680,7 +680,7 @@
         <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.19</v>
+        <v>2.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
@@ -763,10 +763,10 @@
         <v>2.57</v>
       </c>
       <c r="M3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O3" t="n">
         <v>1.55</v>
@@ -790,10 +790,10 @@
         <v>1.45</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -805,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>1.09</v>
@@ -873,10 +873,10 @@
         <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="O4" t="n">
         <v>1.51</v>
@@ -900,10 +900,10 @@
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>1.42</v>
@@ -1010,10 +1010,10 @@
         <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
         <v>1.41</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>3.89</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="O6" t="n">
         <v>1.47</v>
@@ -1120,10 +1120,10 @@
         <v>1.52</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X6" t="n">
         <v>1.63</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>6.16</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="H7" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="I7" t="n">
         <v>1.06</v>
@@ -1203,10 +1203,10 @@
         <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1230,10 +1230,10 @@
         <v>1.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
         <v>1.42</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>4.38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.81</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1.62</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O8" t="n">
         <v>1.41</v>
@@ -1340,10 +1340,10 @@
         <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="X8" t="n">
         <v>1.66</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
@@ -1423,10 +1423,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1450,10 +1450,10 @@
         <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
         <v>1.69</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>6.06</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.73</v>
+        <v>3.57</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
         <v>1.41</v>
@@ -1560,10 +1560,10 @@
         <v>1.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>0.89</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>2.91</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7.95</v>
       </c>
       <c r="I11" t="n">
         <v>1.1</v>
@@ -1643,10 +1643,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="N11" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O11" t="n">
         <v>1.45</v>
@@ -1780,10 +1780,10 @@
         <v>1.39</v>
       </c>
       <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.33</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.5</v>
       </c>
       <c r="X12" t="n">
         <v>1.06</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>1.79</v>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>9.06</v>
       </c>
       <c r="I13" t="n">
         <v>1.05</v>
@@ -1863,10 +1863,10 @@
         <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="N13" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -1890,10 +1890,10 @@
         <v>2.55</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X13" t="n">
         <v>1.33</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>3.04</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="O14" t="n">
         <v>1.43</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>18.37</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2083,10 +2083,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="N15" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
         <v>1.43</v>
@@ -2125,28 +2125,28 @@
         <v>2.45</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AE15" t="n">
         <v>1.98</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.4</v>
       </c>
       <c r="M16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N16" t="n">
         <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2303,10 +2303,10 @@
         <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.38</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="G18" t="n">
         <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
         <v>1.03</v>
@@ -2413,10 +2413,10 @@
         <v>3.9</v>
       </c>
       <c r="M18" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
         <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O20" t="n">
         <v>1.41</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>4.71</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.47</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2963,10 +2963,10 @@
         <v>3.3</v>
       </c>
       <c r="M23" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N23" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.21</v>
+        <v>3.98</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>1.69</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.76</v>
       </c>
       <c r="I25" t="n">
         <v>1.05</v>
@@ -3183,10 +3183,10 @@
         <v>2.93</v>
       </c>
       <c r="M25" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -3195,10 +3195,10 @@
         <v>2.49</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
         <v>1.48</v>
@@ -3225,13 +3225,13 @@
         <v>3.51</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AD25" t="n">
         <v>1.27</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
         <v>1.02</v>
@@ -3293,10 +3293,10 @@
         <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="N26" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O26" t="n">
         <v>1.24</v>
@@ -3385,10 +3385,10 @@
         <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3403,10 +3403,10 @@
         <v>3.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="N27" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>4.71</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="I29" t="n">
         <v>1.02</v>
@@ -3623,10 +3623,10 @@
         <v>3.26</v>
       </c>
       <c r="M29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O29" t="n">
         <v>1.39</v>
@@ -3686,7 +3686,7 @@
         <v>2.93</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="30">
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>2.23</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>7.94</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -3733,10 +3733,10 @@
         <v>3.72</v>
       </c>
       <c r="M30" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="N30" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="O30" t="n">
         <v>1.34</v>
@@ -3790,7 +3790,7 @@
         <v>1.41</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AG30" t="n">
         <v>2.14</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>1.06</v>
@@ -3843,10 +3843,10 @@
         <v>3.3</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="H32" t="n">
-        <v>2.85</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
         <v>1.09</v>
@@ -3953,10 +3953,10 @@
         <v>2.71</v>
       </c>
       <c r="M32" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N32" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O32" t="n">
         <v>1.52</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G33" t="n">
         <v>3.7</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -4063,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N33" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="G35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O35" t="n">
         <v>1.38</v>
@@ -4325,13 +4325,13 @@
         <v>3.03</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
         <v>1.02</v>
@@ -4723,10 +4723,10 @@
         <v>4.87</v>
       </c>
       <c r="M39" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="N39" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.25</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
         <v>1.08</v>
@@ -4943,10 +4943,10 @@
         <v>2.95</v>
       </c>
       <c r="M41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N41" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O41" t="n">
         <v>1.46</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>1.04</v>
@@ -5053,10 +5053,10 @@
         <v>4.1</v>
       </c>
       <c r="M42" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="N42" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I43" t="n">
         <v>1.03</v>
@@ -5163,10 +5163,10 @@
         <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="I44" t="n">
         <v>1.08</v>
@@ -5273,10 +5273,10 @@
         <v>2.8</v>
       </c>
       <c r="M44" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N44" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O44" t="n">
         <v>1.49</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="G47" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="I47" t="n">
         <v>1.09</v>
@@ -5597,16 +5597,16 @@
         <v>5.9</v>
       </c>
       <c r="K47" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="L47" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M47" t="n">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="N47" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="O47" t="n">
         <v>1.6</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>3.6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="N48" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="O48" t="n">
         <v>1.39</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
@@ -5823,7 +5823,7 @@
         <v>3.1</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N49" t="n">
         <v>1.73</v>
@@ -5912,10 +5912,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="H50" t="n">
         <v>9</v>
@@ -5933,10 +5933,10 @@
         <v>3.3</v>
       </c>
       <c r="M50" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N50" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
@@ -6025,10 +6025,10 @@
         <v>1.67</v>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="I51" t="n">
         <v>1.07</v>
@@ -6043,10 +6043,10 @@
         <v>3.25</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N51" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O51" t="n">
         <v>1.41</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
         <v>1.09</v>
@@ -6153,10 +6153,10 @@
         <v>2.4</v>
       </c>
       <c r="M52" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N52" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="O52" t="n">
         <v>1.56</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I53" t="n">
         <v>1.08</v>
@@ -6263,7 +6263,7 @@
         <v>2.8</v>
       </c>
       <c r="M53" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="N53" t="n">
         <v>1.53</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I55" t="n">
         <v>1.07</v>
@@ -6477,7 +6477,7 @@
         <v>6.45</v>
       </c>
       <c r="K55" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="L55" t="n">
         <v>2.45</v>
@@ -7455,10 +7455,10 @@
         <v>2.45</v>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I64" t="n">
         <v>1.08</v>
@@ -7473,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="N64" t="n">
         <v>1.65</v>
@@ -7565,10 +7565,10 @@
         <v>1.8</v>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.37</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7583,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="N65" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -7672,31 +7672,31 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="G66" t="n">
-        <v>3.14</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
-        <v>3.68</v>
+        <v>5.75</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M66" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="N66" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
         <v>1.4</v>
@@ -7711,13 +7711,13 @@
         <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V66" t="n">
         <v>1.8</v>
@@ -7735,13 +7735,13 @@
         <v>2.87</v>
       </c>
       <c r="AA66" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG66" t="n">
         <v>0</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="I67" t="n">
         <v>1.08</v>
@@ -7797,10 +7797,10 @@
         <v>5.9</v>
       </c>
       <c r="K67" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L67" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="M67" t="n">
         <v>2.6</v>
@@ -7848,22 +7848,22 @@
         <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH67" t="n">
         <v>0</v>
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
         <v>1.07</v>
@@ -7913,10 +7913,10 @@
         <v>2.8</v>
       </c>
       <c r="M68" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N68" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O68" t="n">
         <v>1.48</v>
@@ -8002,58 +8002,58 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="G69" t="n">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="H69" t="n">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="M69" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="N69" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="X69" t="n">
         <v>1.73</v>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I70" t="n">
         <v>1.05</v>
@@ -8133,10 +8133,10 @@
         <v>3.5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="N70" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="O70" t="n">
         <v>1.36</v>
@@ -8175,25 +8175,25 @@
         <v>2.03</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="G71" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="I71" t="n">
         <v>1.06</v>
@@ -8243,10 +8243,10 @@
         <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N71" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O71" t="n">
         <v>1.45</v>
@@ -8285,13 +8285,13 @@
         <v>2.39</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD71" t="n">
         <v>1.54</v>
